--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_20_23.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_20_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1120371.102865894</v>
+        <v>1114366.893050615</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1042617.113969144</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10898178.97313182</v>
+        <v>11154611.94481547</v>
       </c>
     </row>
     <row r="11">
@@ -658,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>79.76470074482967</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -676,10 +676,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>168.1158122680962</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -816,10 +816,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -828,7 +828,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>51.06561173382013</v>
       </c>
       <c r="G4" t="n">
         <v>166.0258082590282</v>
@@ -837,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -867,13 +867,13 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>94.90446584096594</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -882,10 +882,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -895,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>233.6876255317273</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -913,7 +913,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292595</v>
@@ -949,22 +949,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>227.7172236952955</v>
       </c>
     </row>
     <row r="6">
@@ -1065,16 +1065,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>46.08403053184475</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,19 +1101,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>192.1675620474802</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1132,16 +1132,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>79.76470074482967</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1150,7 +1150,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1186,22 +1186,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>71.52923230912145</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1296,16 +1296,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1341,22 +1341,22 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>86.66867554195393</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>157.7822070347172</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1384,10 +1384,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>229.7965692041362</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1463,13 +1463,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>134.9994691657081</v>
+        <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851116</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247746</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,16 +1496,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098773</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>128.1435076414547</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T12" t="n">
-        <v>190.7165703189231</v>
+        <v>188.3046392154443</v>
       </c>
       <c r="U12" t="n">
-        <v>225.7871683969286</v>
+        <v>225.7478006422472</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1530,22 +1530,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>120.0312718434581</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004737</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>181.1375494785984</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1612,19 +1612,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>410.9217256534534</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>200.8052136229437</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,16 +1657,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1700,13 +1700,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>134.9994691657081</v>
+        <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851116</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247746</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,16 +1733,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098773</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>128.1435076414547</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T15" t="n">
-        <v>190.7165703189231</v>
+        <v>188.3046392154443</v>
       </c>
       <c r="U15" t="n">
-        <v>225.7871683969286</v>
+        <v>225.7478006422472</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1764,25 +1764,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004737</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>216.2145147462149</v>
+        <v>162.4016674345625</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -2004,19 +2004,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>41.74133133758761</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2092,7 +2092,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>409.8033385187866</v>
@@ -2143,7 +2143,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2256,10 +2256,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2292,13 +2292,13 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>146.5235739004486</v>
       </c>
       <c r="U22" t="n">
-        <v>245.879692121443</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2335,7 +2335,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2371,7 +2371,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
         <v>250.9057009881286</v>
@@ -2490,10 +2490,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>55.52079624060383</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2535,7 +2535,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>39.39795577638954</v>
       </c>
     </row>
     <row r="26">
@@ -2572,7 +2572,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2608,7 +2608,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2718,13 +2718,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2760,22 +2760,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>172.0260335000785</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>148.0280580960833</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2955,19 +2955,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>55.52079624060555</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3046,7 +3046,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3192,22 +3192,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>60.11729550773727</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3243,13 +3243,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3274,7 +3274,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3429,19 +3429,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>55.5207962406042</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3666,16 +3666,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="E40" t="n">
-        <v>99.9742741983392</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3790,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U41" t="n">
         <v>250.9057009881286</v>
@@ -3900,22 +3900,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>26.13627195705825</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -4143,7 +4143,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>99.9742741983392</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4152,10 +4152,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>59.452825597604</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2175.400891308157</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="C2" t="n">
-        <v>1806.438374367745</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="D2" t="n">
-        <v>1448.172675760994</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E2" t="n">
-        <v>1062.38442316275</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F2" t="n">
-        <v>651.3985183731427</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>236.3260682181391</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
         <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3325.60582160917</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U2" t="n">
-        <v>3325.60582160917</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V2" t="n">
-        <v>3325.60582160917</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W2" t="n">
-        <v>3325.60582160917</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X2" t="n">
-        <v>2952.14006334809</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y2" t="n">
-        <v>2562.000731372279</v>
+        <v>1698.50962791956</v>
       </c>
     </row>
     <row r="3">
@@ -4400,16 +4400,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I3" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K3" t="n">
         <v>398.4535849031479</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>776.4603107317583</v>
+        <v>752.7622949738579</v>
       </c>
       <c r="C4" t="n">
-        <v>776.4603107317583</v>
+        <v>583.826112045951</v>
       </c>
       <c r="D4" t="n">
-        <v>626.3436713194226</v>
+        <v>433.7094726336153</v>
       </c>
       <c r="E4" t="n">
-        <v>478.4305777370295</v>
+        <v>285.7963790512222</v>
       </c>
       <c r="F4" t="n">
-        <v>331.5406302391191</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G4" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H4" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J4" t="n">
         <v>111.634748879119</v>
@@ -4515,25 +4515,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S4" t="n">
-        <v>1831.431451279436</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T4" t="n">
-        <v>1609.664835848962</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U4" t="n">
-        <v>1320.561968974606</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V4" t="n">
-        <v>1065.877480768719</v>
+        <v>1672.610059882606</v>
       </c>
       <c r="W4" t="n">
-        <v>776.4603107317583</v>
+        <v>1383.192889845645</v>
       </c>
       <c r="X4" t="n">
-        <v>776.4603107317583</v>
+        <v>1155.203338947628</v>
       </c>
       <c r="Y4" t="n">
-        <v>776.4603107317583</v>
+        <v>934.4107598040977</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1678.62132134232</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C5" t="n">
-        <v>1678.62132134232</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D5" t="n">
-        <v>1320.35562273557</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E5" t="n">
-        <v>934.5673701373257</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F5" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520487</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>3009.337405520487</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="V5" t="n">
-        <v>2678.274518176916</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="W5" t="n">
-        <v>2678.274518176916</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="X5" t="n">
-        <v>2304.808759915837</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="Y5" t="n">
-        <v>1914.669427940025</v>
+        <v>2731.767278738087</v>
       </c>
     </row>
     <row r="6">
@@ -4637,16 +4637,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K6" t="n">
         <v>398.4535849031479</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>726.2447449267036</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C7" t="n">
-        <v>557.3085619987967</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D7" t="n">
-        <v>407.1919225864609</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E7" t="n">
-        <v>259.2788290040678</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F7" t="n">
-        <v>259.2788290040678</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G7" t="n">
-        <v>259.2788290040678</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H7" t="n">
-        <v>113.0616422219256</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4749,28 +4749,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T7" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U7" t="n">
-        <v>1356.675339798491</v>
+        <v>1733.185899555685</v>
       </c>
       <c r="V7" t="n">
-        <v>1356.675339798491</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="W7" t="n">
-        <v>1356.675339798491</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="X7" t="n">
-        <v>1128.685788900473</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="Y7" t="n">
-        <v>907.8932097569433</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="8">
@@ -4780,52 +4780,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1661.795585684488</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="C8" t="n">
-        <v>1292.833068744076</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="D8" t="n">
-        <v>934.5673701373257</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E8" t="n">
-        <v>934.5673701373257</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F8" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
@@ -4834,22 +4834,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3143.063403329072</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U8" t="n">
-        <v>3143.063403329072</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V8" t="n">
-        <v>2812.000515985501</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W8" t="n">
-        <v>2812.000515985501</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X8" t="n">
-        <v>2438.534757724422</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y8" t="n">
-        <v>2048.39542574861</v>
+        <v>1698.50962791956</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387314</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927789</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031475</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158141</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>382.3382468580007</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C10" t="n">
-        <v>213.4020639300938</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D10" t="n">
-        <v>213.4020639300938</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E10" t="n">
-        <v>213.4020639300938</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218342</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4989,25 +4989,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1839.750431379448</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1617.983815948975</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1328.880949074618</v>
+        <v>1767.918581386758</v>
       </c>
       <c r="V10" t="n">
-        <v>1074.196460868731</v>
+        <v>1767.918581386758</v>
       </c>
       <c r="W10" t="n">
-        <v>784.7792908317706</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="X10" t="n">
-        <v>784.7792908317706</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="Y10" t="n">
-        <v>563.9867116882405</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1822.632236038042</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1453.66971909763</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1095.40402049088</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>709.6157678926356</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>298.6298631030281</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>66.51211643218339</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>66.51211643218339</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218339</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912092</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810555</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329464</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001388</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.55555606017</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939507</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296684</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052367</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.60582160917</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>3325.60582160917</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>3325.60582160917</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>3325.60582160917</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3325.60582160917</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>2972.837166339055</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>2599.371408077976</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
-        <v>2209.232076102164</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811087</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999817</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387305</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332749</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601599</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G12" t="n">
-        <v>176.021302392778</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064548</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218339</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228006</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031476</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158128</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M12" t="n">
-        <v>1212.428070438129</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992584</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410639</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886741</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.053542533341</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125856</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619336</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.828302297192</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431608</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.608347199865</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.370990471663</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.519490266131</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501177</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>66.51211643218339</v>
+        <v>801.6918836311989</v>
       </c>
       <c r="C13" t="n">
-        <v>66.51211643218339</v>
+        <v>680.448174698413</v>
       </c>
       <c r="D13" t="n">
-        <v>66.51211643218339</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E13" t="n">
-        <v>66.51211643218339</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F13" t="n">
-        <v>66.51211643218339</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G13" t="n">
-        <v>66.51211643218339</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>66.51211643218339</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218339</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>111.6347488791189</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>315.6219318279952</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>632.1817302764912</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
-        <v>976.33877587604</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1317.747152581905</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>1617.076751502318</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>1849.684251935977</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>1927.294548088492</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>1837.46409084602</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>1645.778206672846</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>1424.011591242372</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>1241.044369546818</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V13" t="n">
-        <v>986.3598813409312</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W13" t="n">
-        <v>696.9427113039706</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X13" t="n">
-        <v>468.9531604059532</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y13" t="n">
-        <v>248.1605812624231</v>
+        <v>983.3403484614387</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1822.632236038041</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1453.669719097629</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1095.404020490879</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1095.404020490879</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>684.4181157012715</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>269.345665546268</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>66.51211643218338</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218338</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912086</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810548</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329463</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001387</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060169</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939506</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296684</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052366</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>3325.605821609169</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>3325.605821609169</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>3325.605821609169</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>3325.605821609169</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3325.605821609169</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>2972.837166339054</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>2599.371408077975</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
-        <v>2209.232076102163</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811087</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999817</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387305</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332749</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601599</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G15" t="n">
-        <v>176.021302392778</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064545</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218338</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228006</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031476</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158142</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1212.42807043813</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1685.951113992584</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>2096.912393410639</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.411984886741</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2565.053542533341</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
-        <v>2564.909189125856</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S15" t="n">
-        <v>2435.471302619336</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T15" t="n">
-        <v>2242.828302297192</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431608</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V15" t="n">
-        <v>1779.608347199865</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W15" t="n">
-        <v>1525.370990471663</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.519490266131</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501177</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>212.7293032143256</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="C16" t="n">
-        <v>212.7293032143256</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D16" t="n">
-        <v>212.7293032143256</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E16" t="n">
-        <v>212.7293032143256</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F16" t="n">
-        <v>212.7293032143256</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>212.7293032143256</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>66.51211643218338</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218338</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>111.6347488791189</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>315.6219318279952</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>632.1817302764912</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
-        <v>976.33877587604</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1317.747152581905</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>1617.076751502318</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>1849.684251935977</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>1927.294548088492</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>1837.46409084602</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>1645.778206672846</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>1424.011591242372</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1205.613091498721</v>
+        <v>1880.464695940366</v>
       </c>
       <c r="V16" t="n">
-        <v>950.9286032928337</v>
+        <v>1625.780207734479</v>
       </c>
       <c r="W16" t="n">
-        <v>661.511433255873</v>
+        <v>1336.363037697518</v>
       </c>
       <c r="X16" t="n">
-        <v>433.5218823578557</v>
+        <v>1108.373486799501</v>
       </c>
       <c r="Y16" t="n">
-        <v>212.7293032143256</v>
+        <v>887.5809076559709</v>
       </c>
     </row>
     <row r="17">
@@ -5512,13 +5512,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5533,7 +5533,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5591,25 +5591,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>245.2306927803938</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>352.5519571452613</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>949.9304447718132</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>580.8993044876693</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>538.7363435406111</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>388.6197041282753</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>240.7066105458822</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F19" t="n">
-        <v>93.81666304797187</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
         <v>93.81666304797187</v>
@@ -5673,52 +5673,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>983.3403484614391</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>762.547769317909</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5734,10 +5734,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
         <v>793.7736536168611</v>
@@ -5749,13 +5749,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5791,10 +5791,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5828,28 +5828,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>840.8417932021785</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1468.439756756785</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>2020.349486996072</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2443.97263649114</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3342.537229081859</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C22" t="n">
-        <v>3173.601046153952</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D22" t="n">
-        <v>3023.484406741616</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E22" t="n">
-        <v>2875.571313159223</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F22" t="n">
-        <v>2728.681365661313</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>2561.485266376193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>4221.331149328841</v>
+        <v>2049.058935487114</v>
       </c>
       <c r="U22" t="n">
-        <v>3972.967823953646</v>
+        <v>1759.983708831312</v>
       </c>
       <c r="V22" t="n">
-        <v>3972.967823953646</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="W22" t="n">
-        <v>3972.967823953646</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X22" t="n">
-        <v>3744.978273055629</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y22" t="n">
-        <v>3524.185693912098</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="23">
@@ -5971,16 +5971,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6065,28 +6065,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>738.7889117913853</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>763.7541388327643</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C25" t="n">
-        <v>594.8179559048574</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D25" t="n">
-        <v>444.7013164925216</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E25" t="n">
-        <v>296.7882229101285</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F25" t="n">
-        <v>149.8982754122182</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6174,25 +6174,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>2227.361618603201</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U25" t="n">
-        <v>1938.286391947399</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V25" t="n">
-        <v>1683.601903741512</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="W25" t="n">
-        <v>1394.184733704551</v>
+        <v>1466.014387565343</v>
       </c>
       <c r="X25" t="n">
-        <v>1166.195182806534</v>
+        <v>1238.024836667326</v>
       </c>
       <c r="Y25" t="n">
-        <v>945.402603663004</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="26">
@@ -6202,34 +6202,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K26" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332386</v>
@@ -6256,22 +6256,22 @@
         <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6302,28 +6302,28 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>738.7889117913853</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6360,16 +6360,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1098.667160263526</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C28" t="n">
-        <v>929.7309773356194</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D28" t="n">
-        <v>779.6143379232836</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408905</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F28" t="n">
         <v>484.8112968429802</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>2273.199413378161</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1729.097755135313</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X28" t="n">
-        <v>1501.108204237296</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y28" t="n">
-        <v>1280.315625093766</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="29">
@@ -6454,28 +6454,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6499,13 +6499,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6539,28 +6539,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>840.8417932021785</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2951.54259528685</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>2782.606412358944</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>2632.489772946608</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>2484.576679364215</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>2337.686731866304</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
-        <v>2337.686731866304</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H31" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>4634.751540034345</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>4415.150075057287</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>4126.074848401485</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>3871.390360195598</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>3581.973190158637</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>3353.98363926062</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>3133.19106011709</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6676,31 +6676,31 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
@@ -6721,31 +6721,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6773,28 +6773,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2129.438138565707</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3342.537229081858</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>3173.601046153951</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>3023.484406741615</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>2875.571313159222</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>2728.681365661312</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G34" t="n">
-        <v>2561.485266376192</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H34" t="n">
-        <v>2419.77343521839</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>2337.686731866303</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>2417.922750296627</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>2679.612012822166</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>3070.010606998106</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>3492.020309729141</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>3909.430181389149</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>4278.959462098134</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>4571.634917671693</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>4630.108611481686</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>4447.253777136591</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>4227.652312159532</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>4227.652312159532</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>3972.967823953645</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>3972.967823953645</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>3744.978273055628</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>3524.185693912098</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6919,7 +6919,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
         <v>1204.759558406469</v>
@@ -6937,19 +6937,19 @@
         <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7013,25 +7013,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>949.9304447718133</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>707.672526468518</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>538.7363435406111</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D37" t="n">
-        <v>388.6197041282753</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E37" t="n">
-        <v>240.7066105458822</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F37" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2390.881471216014</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T37" t="n">
-        <v>2171.280006238955</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U37" t="n">
-        <v>1882.204779583153</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V37" t="n">
-        <v>1627.520291377266</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W37" t="n">
-        <v>1338.103121340305</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X37" t="n">
-        <v>1110.113570442288</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y37" t="n">
-        <v>889.3209912987577</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="38">
@@ -7162,31 +7162,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7250,28 +7250,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>840.8417932021785</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1468.439756756785</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2020.349486996072</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2443.97263649114</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2757.723669558405</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>2588.787486630498</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>2438.670847218162</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E40" t="n">
-        <v>2337.686731866304</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F40" t="n">
-        <v>2337.686731866304</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>3932.255922673039</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>3677.571434467152</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>3388.154264430192</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>3160.164713532175</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>2939.372134388645</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7408,25 +7408,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7487,25 +7487,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1670.092171589158</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2222.001901828445</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
         <v>2553.061288060775</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>983.3556038098237</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>814.4194208819168</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D43" t="n">
-        <v>664.3027814695811</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E43" t="n">
-        <v>516.389687887188</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F43" t="n">
-        <v>369.4997403892776</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G43" t="n">
-        <v>202.3036411041575</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
         <v>175.9033664000583</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>2157.887856924458</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1903.203368718571</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1613.786198681611</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1385.796647783593</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>1165.004068640063</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7624,46 +7624,46 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7739,13 +7739,13 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>1670.092171589158</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
-        <v>2222.001901828445</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2757.723669558405</v>
+        <v>762.5477693179085</v>
       </c>
       <c r="C46" t="n">
-        <v>2588.787486630498</v>
+        <v>593.6115863900017</v>
       </c>
       <c r="D46" t="n">
-        <v>2438.670847218162</v>
+        <v>443.4949469776659</v>
       </c>
       <c r="E46" t="n">
-        <v>2337.686731866304</v>
+        <v>295.5818533952728</v>
       </c>
       <c r="F46" t="n">
-        <v>2337.686731866304</v>
+        <v>295.5818533952728</v>
       </c>
       <c r="G46" t="n">
-        <v>2337.686731866304</v>
+        <v>295.5818533952728</v>
       </c>
       <c r="H46" t="n">
-        <v>2337.686731866304</v>
+        <v>153.8700222374709</v>
       </c>
       <c r="I46" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>4440.9326143059</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T46" t="n">
-        <v>4221.331149328841</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U46" t="n">
-        <v>3932.255922673039</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V46" t="n">
-        <v>3677.571434467152</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W46" t="n">
-        <v>3388.154264430192</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X46" t="n">
-        <v>3160.164713532175</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y46" t="n">
-        <v>2939.372134388645</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
   </sheetData>
@@ -23272,13 +23272,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>181.1251564493172</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292601</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,16 +23308,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881759</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23418,25 +23418,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>47.21554925516978</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983812</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23472,7 +23472,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>105.0742887270145</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23503,7 +23503,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23512,10 +23512,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>93.80255076437678</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292601</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,16 +23545,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>109.1877617881759</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983812</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23709,7 +23709,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>69.99732345939799</v>
+        <v>123.7828069546817</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23892,25 +23892,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>125.5054897610402</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>63.36835372228749</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24144,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24180,13 +24180,13 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>70.88187642683968</v>
       </c>
       <c r="U22" t="n">
-        <v>40.3047822678011</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -24378,10 +24378,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>110.003342051665</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24414,7 +24414,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24423,7 +24423,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>179.1866975757052</v>
       </c>
     </row>
     <row r="26">
@@ -24460,7 +24460,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24606,13 +24606,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24648,22 +24648,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>138.4949402405077</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24843,19 +24843,19 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>125.505489761039</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24934,7 +24934,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -25080,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>6.257951202384419</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25131,13 +25131,13 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25317,19 +25317,19 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>125.5054897610404</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25554,16 +25554,16 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>65.54986409393068</v>
       </c>
       <c r="E40" t="n">
-        <v>46.45968844822997</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
@@ -25788,22 +25788,22 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26031,7 +26031,7 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>46.45968844822997</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26040,10 +26040,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>21.81301072096154</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>813542.0618819101</v>
+        <v>960596.1339360035</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>813542.06188191</v>
+        <v>960596.1339360037</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>960596.1339360038</v>
+        <v>960596.1339360037</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>960596.1339360038</v>
+        <v>960596.1339360037</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>960596.1339360038</v>
+        <v>960596.1339360035</v>
       </c>
     </row>
     <row r="13">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>960596.1339360038</v>
+        <v>960596.1339360037</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>960596.1339360035</v>
+        <v>960596.1339360037</v>
       </c>
     </row>
   </sheetData>
@@ -26322,28 +26322,28 @@
         <v>472099.0176719631</v>
       </c>
       <c r="E2" t="n">
-        <v>392146.6638165587</v>
+        <v>464109.2948217537</v>
       </c>
       <c r="F2" t="n">
-        <v>392146.6638165587</v>
+        <v>464109.2948217537</v>
       </c>
       <c r="G2" t="n">
-        <v>464109.2948217535</v>
+        <v>464109.2948217537</v>
       </c>
       <c r="H2" t="n">
         <v>464109.2948217537</v>
       </c>
       <c r="I2" t="n">
-        <v>464109.2948217536</v>
+        <v>464109.2948217537</v>
       </c>
       <c r="J2" t="n">
-        <v>464109.2948217536</v>
+        <v>464109.2948217537</v>
       </c>
       <c r="K2" t="n">
-        <v>464109.2948217536</v>
+        <v>464109.2948217537</v>
       </c>
       <c r="L2" t="n">
-        <v>464109.2948217535</v>
+        <v>464109.2948217537</v>
       </c>
       <c r="M2" t="n">
         <v>464109.2948217537</v>
@@ -26352,7 +26352,7 @@
         <v>464109.2948217537</v>
       </c>
       <c r="O2" t="n">
-        <v>464109.2948217536</v>
+        <v>464109.2948217537</v>
       </c>
       <c r="P2" t="n">
         <v>464109.2948217537</v>
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>309843.0334598206</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972774</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>85055.02793551178</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>82135.83059545147</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>92183.89891818175</v>
+        <v>92183.89891818172</v>
       </c>
       <c r="C4" t="n">
-        <v>92183.89891818176</v>
+        <v>92183.8989181817</v>
       </c>
       <c r="D4" t="n">
-        <v>92183.89891818175</v>
+        <v>92183.8989181817</v>
       </c>
       <c r="E4" t="n">
-        <v>12820.12292715301</v>
+        <v>12996.86414683044</v>
       </c>
       <c r="F4" t="n">
-        <v>12820.12292715301</v>
+        <v>12996.86414683044</v>
       </c>
       <c r="G4" t="n">
         <v>12996.86414683044</v>
@@ -26478,10 +26478,10 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>74306.34056139327</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="F5" t="n">
-        <v>74306.34056139326</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="G5" t="n">
         <v>101122.5298239071</v>
@@ -26521,7 +26521,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1056763.567535204</v>
+        <v>-1056763.567535205</v>
       </c>
       <c r="C6" t="n">
         <v>271981.1781923881</v>
@@ -26530,40 +26530,40 @@
         <v>271981.1781923881</v>
       </c>
       <c r="E6" t="n">
-        <v>305020.2003280127</v>
+        <v>24230.05978930409</v>
       </c>
       <c r="F6" t="n">
-        <v>305020.2003280124</v>
+        <v>349642.5215966591</v>
       </c>
       <c r="G6" t="n">
-        <v>40146.86739119537</v>
+        <v>349642.5215966591</v>
       </c>
       <c r="H6" t="n">
-        <v>349989.9008510163</v>
+        <v>349642.5215966592</v>
       </c>
       <c r="I6" t="n">
-        <v>349989.900851016</v>
+        <v>349642.5215966591</v>
       </c>
       <c r="J6" t="n">
-        <v>132458.6984537387</v>
+        <v>132111.3191993818</v>
       </c>
       <c r="K6" t="n">
-        <v>349989.900851016</v>
+        <v>349642.5215966591</v>
       </c>
       <c r="L6" t="n">
-        <v>349989.9008510159</v>
+        <v>349642.5215966591</v>
       </c>
       <c r="M6" t="n">
-        <v>349989.9008510161</v>
+        <v>264587.4936611474</v>
       </c>
       <c r="N6" t="n">
-        <v>349989.9008510162</v>
+        <v>349642.5215966591</v>
       </c>
       <c r="O6" t="n">
-        <v>267854.0702555645</v>
+        <v>349642.5215966591</v>
       </c>
       <c r="P6" t="n">
-        <v>349989.9008510162</v>
+        <v>349642.5215966591</v>
       </c>
     </row>
   </sheetData>
@@ -26746,10 +26746,10 @@
         <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
-        <v>1089.776700593298</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="F3" t="n">
-        <v>1089.776700593298</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="G3" t="n">
         <v>1367.975500341674</v>
@@ -26789,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022924</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022922</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26968,13 +26968,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>278.1987997483761</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>341.3068326973562</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022923</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,13 +27044,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>341.3068326973562</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>341.3068326973562</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27378,13 +27378,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>274.9183408758533</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27396,10 +27396,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>126.4919521192243</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27536,10 +27536,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27548,7 +27548,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>94.35543628911111</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27557,7 +27557,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27587,13 +27587,13 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>94.86455949047595</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27602,10 +27602,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27615,10 +27615,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>149.0462161317532</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27633,7 +27633,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27669,22 +27669,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>158.5207149607581</v>
       </c>
     </row>
     <row r="6">
@@ -27785,16 +27785,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>50.26838987799334</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,19 +27821,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>94.0442761581327</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27852,16 +27852,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>274.9183408758533</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27870,7 +27870,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27906,22 +27906,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>132.3887378304987</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28016,16 +28016,16 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
@@ -28061,22 +28061,22 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>103.100349789488</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>128.4296311708957</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681596</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844665</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>168.8989597974799</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>371.8329054953987</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>557.2811376003808</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623191</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574991</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>781.714899009502</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099056</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746411</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.0999946781688</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563568</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806946</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>19.1778794245112</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.344047997502565</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>22.63856881798531</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752254</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026437</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>378.5123470353155</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138794</v>
+        <v>246.9596973201446</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233473</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837935</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>557.7086478970248</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002925</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987485</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>145.5365940905541</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238315</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898494</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430537</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>17.47215759311879</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742017</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>138.9375967297389</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>228.3171513702023</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>292.1673469098819</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>308.0495024316431</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883114</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>237.6785118802168</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>164.556281789588</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712211</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553035</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112292</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681596</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844665</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>168.8989597974799</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>371.8329054953987</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>557.2811376003808</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623191</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574991</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>781.714899009502</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099056</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746411</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.0999946781688</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563568</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806946</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>19.1778794245112</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.344047997502565</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>22.63856881798531</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752254</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026437</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>378.5123470353155</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138809</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233473</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837921</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>557.7086478970248</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002925</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987485</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.5365940905541</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238315</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898494</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430537</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>17.47215759311879</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742017</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>138.9375967297389</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>228.3171513702023</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>292.1673469098819</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>308.0495024316431</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883114</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
-        <v>237.6785118802168</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>164.556281789588</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712211</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553035</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112292</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
@@ -32317,22 +32317,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>246.9596973201445</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32548,16 +32548,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
@@ -32566,13 +32566,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>250.1723312270667</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32785,31 +32785,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>742.935485982477</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -33022,31 +33022,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>742.935485982477</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33259,31 +33259,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>639.8517673857162</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33496,7 +33496,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33511,13 +33511,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>595.327537312171</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33733,7 +33733,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33742,19 +33742,19 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>514.8598010172138</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33891,7 +33891,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33970,16 +33970,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
@@ -33988,13 +33988,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>250.1723312270667</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34207,7 +34207,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34222,13 +34222,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>468.3778278510275</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34365,7 +34365,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34459,16 +34459,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
-        <v>232.75998908852</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687124</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554003</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923318</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302264</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>552.301835412911</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882189</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193715</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037193</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222467</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,31 +35485,31 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
-        <v>94.62350453597702</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>240.6709080609565</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340052</v>
+        <v>108.4053175402704</v>
       </c>
       <c r="M12" t="n">
-        <v>451.794267901329</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004602</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525803</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>313.6359509859623</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.233896612727</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.57841661306617</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>206.0476595443195</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>319.757372170198</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>347.6333793934837</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>344.8569461675399</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>302.3531302226397</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
-        <v>234.9570711451103</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789357</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687124</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554003</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923318</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302264</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>552.301835412911</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882189</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193715</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037193</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222467</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,31 +35722,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597702</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>240.6709080609565</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340067</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>451.794267901329</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004589</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525803</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859623</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.233896612727</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.57841661306617</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>206.0476595443195</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>319.757372170198</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>347.6333793934837</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>344.8569461675399</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>302.3531302226397</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
-        <v>234.9570711451103</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789357</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,28 +35959,28 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>108.4053175402703</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36196,16 +36196,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
@@ -36214,13 +36214,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>110.1905571410452</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36433,31 +36433,31 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>611.5937738991437</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36670,31 +36670,31 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>611.5937738991437</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36907,31 +36907,31 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>508.510055302383</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37159,13 +37159,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>463.9858252288377</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,19 +37390,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>376.3054212373396</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37539,7 +37539,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37618,16 +37618,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37636,13 +37636,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>110.1905571410452</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37870,13 +37870,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>334.4034204366973</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38013,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38107,16 +38107,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
-        <v>98.78558167418976</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_20_23.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_20_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1114366.893050615</v>
+        <v>1117521.812392837</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>1042617.113969143</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>11154611.94481547</v>
+        <v>10898178.97313182</v>
       </c>
     </row>
     <row r="11">
@@ -661,10 +661,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>19.68942351146622</v>
       </c>
       <c r="D2" t="n">
-        <v>79.76470074482967</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -676,10 +676,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,7 +712,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -755,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -828,7 +828,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>51.06561173382013</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.0258082590282</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>157.7822070347168</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>227.7172236952955</v>
+        <v>227.7172236952946</v>
       </c>
     </row>
     <row r="6">
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1110,13 +1110,13 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>192.1675620474802</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>157.7822070347172</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1132,16 +1132,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>279.3751023006584</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>79.76470074482967</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1153,7 +1153,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,7 +1186,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
@@ -1201,7 +1201,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,10 +1259,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>61.74094675585751</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>157.7822070347172</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1369,10 +1369,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>248.6774854464284</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1384,10 +1384,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881284</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1435,7 +1435,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1463,13 +1463,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>134.4010792945512</v>
+        <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,16 +1496,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S12" t="n">
-        <v>117.0286782364134</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T12" t="n">
-        <v>188.3046392154443</v>
+        <v>190.7165703189231</v>
       </c>
       <c r="U12" t="n">
-        <v>225.7478006422472</v>
+        <v>225.7871683969286</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1527,16 +1527,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>120.0312718434581</v>
+        <v>147.9212967840878</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1545,7 +1545,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1606,28 +1606,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>245.6036755614956</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1672,10 +1672,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1700,13 +1700,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>134.4010792945512</v>
+        <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128545</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,16 +1733,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S15" t="n">
-        <v>117.0286782364134</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T15" t="n">
-        <v>188.3046392154443</v>
+        <v>190.7165703189231</v>
       </c>
       <c r="U15" t="n">
-        <v>225.7478006422472</v>
+        <v>225.7871683969286</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1767,7 +1767,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -1776,10 +1776,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1815,13 +1815,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>162.4016674345625</v>
+        <v>51.06561173382075</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2004,13 +2004,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>83.06560892428168</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>136.2892803597728</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2143,7 +2143,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.2409687174127</v>
+        <v>349.2409687174118</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2244,7 +2244,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>146.5235739004486</v>
+        <v>74.99129529219189</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2301,7 +2301,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2335,7 +2335,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2371,7 +2371,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U23" t="n">
         <v>250.9057009881286</v>
@@ -2481,19 +2481,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2535,7 +2535,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>39.39795577638954</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2608,7 +2608,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2623,7 +2623,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560522</v>
       </c>
     </row>
     <row r="27">
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>69.82863813027228</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2775,7 +2775,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>148.0280580960833</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2806,7 +2806,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2955,10 +2955,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2967,10 +2967,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>5.421623586788372</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3003,7 +3003,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634785</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3046,7 +3046,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3125,7 +3125,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H33" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3192,19 +3192,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3249,7 +3249,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>94.64226186542889</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3274,7 +3274,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3429,19 +3429,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3474,13 +3474,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>94.30373791808204</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3520,7 +3520,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3666,22 +3666,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>83.06560892428168</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>32.27552175740387</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3793,7 +3793,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
         <v>250.9057009881286</v>
@@ -3808,7 +3808,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="42">
@@ -3900,25 +3900,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>28.75188085812005</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>91.89996056624796</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4134,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>123.9815576456779</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>59.452825597604</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4306,52 +4306,52 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1698.50962791956</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="C2" t="n">
-        <v>1698.50962791956</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D2" t="n">
-        <v>1617.939223126803</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
         <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
         <v>3325.605821609171</v>
@@ -4360,22 +4360,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794325</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450754</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.97538618064</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X2" t="n">
-        <v>1698.50962791956</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y2" t="n">
-        <v>1698.50962791956</v>
+        <v>1698.509627919559</v>
       </c>
     </row>
     <row r="3">
@@ -4406,16 +4406,16 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
@@ -4427,10 +4427,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R3" t="n">
         <v>2564.909189125856</v>
@@ -4464,40 +4464,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>752.7622949738579</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C4" t="n">
-        <v>583.826112045951</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D4" t="n">
-        <v>433.7094726336153</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E4" t="n">
-        <v>285.7963790512222</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F4" t="n">
         <v>234.2149530574645</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L4" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N4" t="n">
         <v>1317.747152581905</v>
@@ -4509,31 +4509,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R4" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S4" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T4" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="U4" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="V4" t="n">
-        <v>1672.610059882606</v>
+        <v>1767.918581386758</v>
       </c>
       <c r="W4" t="n">
-        <v>1383.192889845645</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="X4" t="n">
-        <v>1155.203338947628</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="Y4" t="n">
-        <v>934.4107598040977</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="5">
@@ -4564,31 +4564,31 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
@@ -4600,16 +4600,16 @@
         <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>2961.784676410103</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V5" t="n">
-        <v>2961.784676410103</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="W5" t="n">
-        <v>2961.784676410103</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="X5" t="n">
-        <v>2961.784676410103</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="Y5" t="n">
         <v>2731.767278738087</v>
@@ -4622,37 +4622,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4679,7 +4679,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4688,10 +4688,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4716,13 +4716,13 @@
         <v>234.2149530574645</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4758,10 +4758,10 @@
         <v>1927.294548088493</v>
       </c>
       <c r="U7" t="n">
-        <v>1733.185899555685</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V7" t="n">
-        <v>1478.501411349798</v>
+        <v>1767.918581386758</v>
       </c>
       <c r="W7" t="n">
         <v>1478.501411349798</v>
@@ -4780,13 +4780,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1698.50962791956</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="C8" t="n">
-        <v>1698.50962791956</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="E8" t="n">
         <v>1232.150970528558</v>
@@ -4804,13 +4804,13 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
         <v>1573.776739001389</v>
@@ -4819,7 +4819,7 @@
         <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
         <v>3018.302393296687</v>
@@ -4828,28 +4828,28 @@
         <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520489</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794325</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450754</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="W8" t="n">
-        <v>2071.97538618064</v>
+        <v>2277.953133796418</v>
       </c>
       <c r="X8" t="n">
-        <v>1698.50962791956</v>
+        <v>1904.487375535338</v>
       </c>
       <c r="Y8" t="n">
-        <v>1698.50962791956</v>
+        <v>1514.348043559527</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927783</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064585</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031475</v>
+        <v>398.453584903148</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>848.0708164780106</v>
+        <v>945.3964936596652</v>
       </c>
       <c r="C10" t="n">
-        <v>679.1346335501037</v>
+        <v>776.4603107317583</v>
       </c>
       <c r="D10" t="n">
-        <v>529.0179941377679</v>
+        <v>626.3436713194226</v>
       </c>
       <c r="E10" t="n">
-        <v>381.1049005553748</v>
+        <v>478.4305777370295</v>
       </c>
       <c r="F10" t="n">
-        <v>234.2149530574645</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218343</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218343</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
         <v>66.51211643218343</v>
@@ -4965,16 +4965,16 @@
         <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O10" t="n">
         <v>1617.076751502319</v>
@@ -4986,28 +4986,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1864.929955405809</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1864.929955405809</v>
       </c>
       <c r="T10" t="n">
-        <v>1927.294548088493</v>
+        <v>1864.929955405809</v>
       </c>
       <c r="U10" t="n">
-        <v>1767.918581386758</v>
+        <v>1575.827088531452</v>
       </c>
       <c r="V10" t="n">
-        <v>1767.918581386758</v>
+        <v>1575.827088531452</v>
       </c>
       <c r="W10" t="n">
-        <v>1478.501411349798</v>
+        <v>1575.827088531452</v>
       </c>
       <c r="X10" t="n">
-        <v>1250.51186045178</v>
+        <v>1347.837537633435</v>
       </c>
       <c r="Y10" t="n">
-        <v>1029.71928130825</v>
+        <v>1127.044958489905</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>1887.813801820606</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192596</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>2277.953133796418</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>2277.953133796418</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>1887.813801820606</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>943.3991132778466</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C12" t="n">
-        <v>768.9460839967196</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D12" t="n">
-        <v>620.0116743354683</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F12" t="n">
-        <v>314.2396613568978</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G12" t="n">
-        <v>178.4809954028057</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273903</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803937</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K12" t="n">
-        <v>245.2306927803937</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L12" t="n">
-        <v>352.5519571452614</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M12" t="n">
-        <v>949.9304447718133</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N12" t="n">
-        <v>1577.52840832642</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R12" t="n">
-        <v>2553.061288060775</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S12" t="n">
-        <v>2434.850501963388</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T12" t="n">
-        <v>2244.643795685161</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U12" t="n">
-        <v>2016.615714228345</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V12" t="n">
-        <v>1781.463605996603</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W12" t="n">
-        <v>1527.226249268401</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X12" t="n">
-        <v>1319.374749062868</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y12" t="n">
-        <v>1111.614450297915</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>801.6918836311989</v>
+        <v>362.8175152271522</v>
       </c>
       <c r="C13" t="n">
-        <v>680.448174698413</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="D13" t="n">
-        <v>530.3315352860773</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="E13" t="n">
-        <v>382.4184417036842</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F13" t="n">
-        <v>235.5284942057738</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>1645.778206672848</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602304</v>
+        <v>1134.908724368017</v>
       </c>
       <c r="V13" t="n">
-        <v>1500.747069396417</v>
+        <v>880.2242361621301</v>
       </c>
       <c r="W13" t="n">
-        <v>1211.329899359456</v>
+        <v>590.8070661251695</v>
       </c>
       <c r="X13" t="n">
-        <v>983.3403484614387</v>
+        <v>362.8175152271522</v>
       </c>
       <c r="Y13" t="n">
-        <v>983.3403484614387</v>
+        <v>362.8175152271522</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2182.266054653545</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1813.303537713133</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1455.037839106383</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1069.249586508138</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>2535.034709923659</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>2182.266054653545</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>2182.266054653545</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2182.266054653545</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>943.3991132778466</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C15" t="n">
-        <v>768.9460839967196</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D15" t="n">
-        <v>620.0116743354683</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F15" t="n">
-        <v>314.2396613568978</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G15" t="n">
-        <v>178.4809954028057</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516142</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167373</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M15" t="n">
-        <v>1671.859558793925</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N15" t="n">
-        <v>2299.457522348532</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R15" t="n">
-        <v>2553.061288060775</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S15" t="n">
-        <v>2434.850501963388</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T15" t="n">
-        <v>2244.643795685161</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U15" t="n">
-        <v>2016.615714228345</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V15" t="n">
-        <v>1781.463605996603</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W15" t="n">
-        <v>1527.226249268401</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X15" t="n">
-        <v>1319.374749062868</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y15" t="n">
-        <v>1111.614450297915</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>705.9324428257312</v>
+        <v>701.1808689801002</v>
       </c>
       <c r="C16" t="n">
-        <v>705.9324428257312</v>
+        <v>532.2446860521933</v>
       </c>
       <c r="D16" t="n">
-        <v>555.8158034133954</v>
+        <v>382.1280466398576</v>
       </c>
       <c r="E16" t="n">
-        <v>407.9027098310023</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="F16" t="n">
-        <v>261.0127623330919</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797187</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U16" t="n">
-        <v>1880.464695940366</v>
+        <v>1875.713122094735</v>
       </c>
       <c r="V16" t="n">
-        <v>1625.780207734479</v>
+        <v>1621.028633888848</v>
       </c>
       <c r="W16" t="n">
-        <v>1336.363037697518</v>
+        <v>1331.611463851887</v>
       </c>
       <c r="X16" t="n">
-        <v>1108.373486799501</v>
+        <v>1103.62191295387</v>
       </c>
       <c r="Y16" t="n">
-        <v>887.5809076559709</v>
+        <v>882.8293338103399</v>
       </c>
     </row>
     <row r="17">
@@ -5509,16 +5509,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5533,13 +5533,13 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
         <v>4606.285157492578</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,16 +5588,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
         <v>1074.481071167373</v>
@@ -5606,7 +5606,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5649,13 +5649,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E19" t="n">
         <v>261.0127623330919</v>
@@ -5664,61 +5664,61 @@
         <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2242.251440075317</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2022.649975098258</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1733.574748442456</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1478.890260236569</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1189.473090199608</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>961.4835393015907</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>740.6909601580605</v>
       </c>
     </row>
     <row r="20">
@@ -5746,16 +5746,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5764,31 +5764,31 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
         <v>3467.980956852889</v>
@@ -5825,7 +5825,7 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
         <v>95.58405025273903</v>
@@ -5843,7 +5843,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5886,10 +5886,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>874.8686257536381</v>
+        <v>724.7519863413023</v>
       </c>
       <c r="C22" t="n">
-        <v>705.9324428257312</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="D22" t="n">
         <v>555.8158034133954</v>
@@ -5901,61 +5901,61 @@
         <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>2049.058935487114</v>
+        <v>2188.359466111739</v>
       </c>
       <c r="U22" t="n">
-        <v>1759.983708831312</v>
+        <v>1899.284239455937</v>
       </c>
       <c r="V22" t="n">
-        <v>1505.299220625425</v>
+        <v>1644.59975125005</v>
       </c>
       <c r="W22" t="n">
-        <v>1505.299220625425</v>
+        <v>1355.182581213089</v>
       </c>
       <c r="X22" t="n">
-        <v>1277.309669727408</v>
+        <v>1127.193030315072</v>
       </c>
       <c r="Y22" t="n">
-        <v>1056.517090583878</v>
+        <v>906.400451171542</v>
       </c>
     </row>
     <row r="23">
@@ -5971,28 +5971,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6010,13 +6010,13 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T23" t="n">
         <v>4405.252601474784</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6062,10 +6062,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J24" t="n">
         <v>245.2306927803937</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>847.6442739835331</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>697.5276345711974</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>549.6145409888043</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1755.431557602304</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1466.014387565343</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1238.024836667326</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6223,13 +6223,13 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075805</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332386</v>
@@ -6256,19 +6256,19 @@
         <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>653.7474797708871</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C28" t="n">
-        <v>484.8112968429802</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D28" t="n">
-        <v>484.8112968429802</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429802</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797186</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W28" t="n">
-        <v>1284.178074642674</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X28" t="n">
-        <v>1056.188523744657</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y28" t="n">
-        <v>835.3959446011269</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="29">
@@ -6445,28 +6445,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>733.4550657171301</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>564.5188827892232</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>414.4022433768874</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>266.4891497944943</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121643</v>
+        <v>266.4891497944943</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270443</v>
+        <v>99.29305050937427</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>99.29305050937427</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6651,22 +6651,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>915.1035305473698</v>
       </c>
     </row>
     <row r="32">
@@ -6682,70 +6682,70 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615995</v>
       </c>
     </row>
     <row r="33">
@@ -6773,25 +6773,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273898</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803936</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516141</v>
       </c>
       <c r="L33" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6834,37 +6834,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
@@ -6897,13 +6897,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="35">
@@ -6919,7 +6919,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
         <v>1204.759558406469</v>
@@ -6928,13 +6928,13 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111715</v>
@@ -6946,10 +6946,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -7019,16 +7019,16 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908939</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908939</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908939</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7122,25 +7122,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="38">
@@ -7156,40 +7156,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7256,16 +7256,16 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>950.7540666811333</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>781.8178837532264</v>
       </c>
       <c r="D40" t="n">
-        <v>261.0127623330919</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E40" t="n">
-        <v>261.0127623330919</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F40" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2414.36154645157</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>2125.286319795768</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1870.601831589881</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1581.18466155292</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>1353.195110654903</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>1132.402531511373</v>
       </c>
     </row>
     <row r="41">
@@ -7408,25 +7408,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7447,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C43" t="n">
-        <v>484.8112968429803</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D43" t="n">
-        <v>484.8112968429803</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E43" t="n">
-        <v>484.8112968429803</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="44">
@@ -7624,46 +7624,46 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7724,22 +7724,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N45" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>762.5477693179085</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>593.6115863900017</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D46" t="n">
-        <v>443.4949469776659</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E46" t="n">
-        <v>295.5818533952728</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F46" t="n">
-        <v>295.5818533952728</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>295.5818533952728</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>153.8700222374709</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8081,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -23257,10 +23257,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>116.5954063245791</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23275,10 +23275,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23311,7 +23311,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23323,7 +23323,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>47.21554925516978</v>
+        <v>19.32552431454005</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23506,7 +23506,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>161.2723701802158</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23545,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23560,10 +23560,10 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23655,7 +23655,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23664,16 +23664,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>123.7828069546817</v>
+        <v>235.1462264717921</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23892,13 +23892,13 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>63.36835372228749</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23910,7 +23910,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,7 +23940,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>44.73700564187183</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24031,7 +24031,7 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -24132,7 +24132,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24147,7 +24147,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>70.88187642683968</v>
+        <v>142.4141550350964</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24189,7 +24189,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24369,19 +24369,19 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24423,7 +24423,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>179.1866975757052</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24511,7 +24511,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
     </row>
     <row r="27">
@@ -24600,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>110.003342051665</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24663,7 +24663,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>138.4949402405077</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24843,10 +24843,10 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24855,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>75.84421273177716</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24891,7 +24891,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24916,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>2.103206497849897e-12</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -25080,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25137,7 +25137,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>191.8807364711621</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25317,19 +25317,19 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25362,13 +25362,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>191.8807364711621</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>65.54986409393068</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>185.1299285698844</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25788,25 +25788,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>125.5054897610403</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26022,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>24.63391537253442</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>21.81301072096154</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>960596.1339360035</v>
+        <v>813542.0618819101</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>960596.1339360037</v>
+        <v>813542.0618819103</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>960596.1339360035</v>
+        <v>960596.1339360037</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>960596.1339360037</v>
+        <v>960596.1339360034</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>960596.1339360037</v>
+        <v>960596.1339360035</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>960596.1339360037</v>
+        <v>960596.1339360035</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>960596.1339360035</v>
+        <v>960596.1339360037</v>
       </c>
     </row>
     <row r="12">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>960596.1339360035</v>
+        <v>960596.1339360038</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>960596.1339360037</v>
+        <v>960596.1339360035</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>960596.1339360037</v>
+        <v>960596.1339360035</v>
       </c>
     </row>
   </sheetData>
@@ -26316,34 +26316,34 @@
         <v>472099.0176719631</v>
       </c>
       <c r="C2" t="n">
-        <v>472099.0176719631</v>
+        <v>472099.0176719632</v>
       </c>
       <c r="D2" t="n">
-        <v>472099.0176719631</v>
+        <v>472099.0176719632</v>
       </c>
       <c r="E2" t="n">
-        <v>464109.2948217537</v>
+        <v>392146.6638165589</v>
       </c>
       <c r="F2" t="n">
-        <v>464109.2948217537</v>
+        <v>392146.663816559</v>
       </c>
       <c r="G2" t="n">
-        <v>464109.2948217537</v>
+        <v>464109.2948217536</v>
       </c>
       <c r="H2" t="n">
-        <v>464109.2948217537</v>
+        <v>464109.2948217536</v>
       </c>
       <c r="I2" t="n">
         <v>464109.2948217537</v>
       </c>
       <c r="J2" t="n">
-        <v>464109.2948217537</v>
+        <v>464109.2948217536</v>
       </c>
       <c r="K2" t="n">
         <v>464109.2948217537</v>
       </c>
       <c r="L2" t="n">
-        <v>464109.2948217537</v>
+        <v>464109.2948217536</v>
       </c>
       <c r="M2" t="n">
         <v>464109.2948217537</v>
@@ -26352,7 +26352,7 @@
         <v>464109.2948217537</v>
       </c>
       <c r="O2" t="n">
-        <v>464109.2948217537</v>
+        <v>464109.2948217536</v>
       </c>
       <c r="P2" t="n">
         <v>464109.2948217537</v>
@@ -26365,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.07046923605958e-10</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1.947259988810401e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>309843.03345982</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26398,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551178</v>
+        <v>1.133248588303104e-10</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>82135.83059545136</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>92183.89891818172</v>
+        <v>92183.89891818177</v>
       </c>
       <c r="C4" t="n">
-        <v>92183.8989181817</v>
+        <v>92183.89891818175</v>
       </c>
       <c r="D4" t="n">
-        <v>92183.8989181817</v>
+        <v>92183.89891818167</v>
       </c>
       <c r="E4" t="n">
-        <v>12996.86414683044</v>
+        <v>12820.12292715301</v>
       </c>
       <c r="F4" t="n">
-        <v>12996.86414683044</v>
+        <v>12820.12292715301</v>
       </c>
       <c r="G4" t="n">
         <v>12996.86414683044</v>
@@ -26478,10 +26478,10 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239071</v>
+        <v>74306.34056139331</v>
       </c>
       <c r="F5" t="n">
-        <v>101122.5298239071</v>
+        <v>74306.34056139331</v>
       </c>
       <c r="G5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1056763.567535205</v>
+        <v>-1056763.567535204</v>
       </c>
       <c r="C6" t="n">
-        <v>271981.1781923881</v>
+        <v>271981.1781923879</v>
       </c>
       <c r="D6" t="n">
-        <v>271981.1781923881</v>
+        <v>271981.178192388</v>
       </c>
       <c r="E6" t="n">
-        <v>24230.05978930409</v>
+        <v>304672.5813982065</v>
       </c>
       <c r="F6" t="n">
-        <v>349642.5215966591</v>
+        <v>304672.5813982065</v>
       </c>
       <c r="G6" t="n">
-        <v>349642.5215966591</v>
+        <v>40112.12946576042</v>
       </c>
       <c r="H6" t="n">
-        <v>349642.5215966592</v>
+        <v>349955.1629255805</v>
       </c>
       <c r="I6" t="n">
-        <v>349642.5215966591</v>
+        <v>349955.1629255806</v>
       </c>
       <c r="J6" t="n">
-        <v>132111.3191993818</v>
+        <v>132423.9605283029</v>
       </c>
       <c r="K6" t="n">
-        <v>349642.5215966591</v>
+        <v>349955.1629255804</v>
       </c>
       <c r="L6" t="n">
-        <v>349642.5215966591</v>
+        <v>349955.1629255805</v>
       </c>
       <c r="M6" t="n">
-        <v>264587.4936611474</v>
+        <v>349955.1629255803</v>
       </c>
       <c r="N6" t="n">
-        <v>349642.5215966591</v>
+        <v>349955.1629255804</v>
       </c>
       <c r="O6" t="n">
-        <v>349642.5215966591</v>
+        <v>267819.3323301289</v>
       </c>
       <c r="P6" t="n">
-        <v>349642.5215966591</v>
+        <v>349955.1629255806</v>
       </c>
     </row>
   </sheetData>
@@ -26743,13 +26743,13 @@
         <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="E3" t="n">
-        <v>1367.975500341674</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="F3" t="n">
-        <v>1367.975500341674</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="G3" t="n">
         <v>1367.975500341674</v>
@@ -26789,22 +26789,22 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>831.4014554022926</v>
+      </c>
+      <c r="C4" t="n">
+        <v>831.4014554022926</v>
+      </c>
+      <c r="D4" t="n">
+        <v>831.401455402293</v>
+      </c>
+      <c r="E4" t="n">
         <v>831.4014554022929</v>
       </c>
-      <c r="C4" t="n">
+      <c r="F4" t="n">
         <v>831.4014554022929</v>
       </c>
-      <c r="D4" t="n">
-        <v>831.4014554022929</v>
-      </c>
-      <c r="E4" t="n">
-        <v>1172.708288099648</v>
-      </c>
-      <c r="F4" t="n">
-        <v>1172.708288099648</v>
-      </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26962,19 +26962,19 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
         <v>278.1987997483754</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27044,13 +27044,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27381,10 +27381,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>345.5834682595413</v>
       </c>
       <c r="D2" t="n">
-        <v>274.9183408758533</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27396,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27548,7 +27548,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>94.35543628911111</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27557,7 +27557,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -27596,7 +27596,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>94.35543628911122</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27684,7 +27684,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>158.5207149607581</v>
+        <v>158.520714960759</v>
       </c>
     </row>
     <row r="6">
@@ -27830,13 +27830,13 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>94.0442761581327</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>94.3554362891108</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27852,16 +27852,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>103.3587393628222</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>274.9183408758533</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27906,7 +27906,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27921,7 +27921,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28031,7 +28031,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>27.1912059141898</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -28067,13 +28067,13 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>128.4296311708957</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -31041,43 +31041,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31126,40 +31126,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31199,13 +31199,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31214,16 +31214,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31232,16 +31232,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31515,7 +31515,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H8" t="n">
         <v>44.86703772844668</v>
@@ -31524,40 +31524,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T8" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,46 +31594,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q9" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31676,43 +31676,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L10" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780295</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L12" t="n">
-        <v>246.9596973201446</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>299.2156706987476</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R13" t="n">
-        <v>110.9181446670478</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T13" t="n">
-        <v>10.54013910099322</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651528</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O15" t="n">
-        <v>398.7616643558013</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>299.2156706987476</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937734</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189903</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417315</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R16" t="n">
-        <v>110.9181446670478</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T16" t="n">
-        <v>10.54013910099322</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
@@ -32317,19 +32317,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O18" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
@@ -32554,19 +32554,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O21" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -33411,37 +33411,37 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H32" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R32" t="n">
         <v>345.4516222043725</v>
@@ -33450,10 +33450,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33499,22 +33499,22 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K33" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558013</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33526,10 +33526,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T33" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U33" t="n">
         <v>0.1935814387275954</v>
@@ -33575,28 +33575,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J34" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N34" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P34" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q34" t="n">
         <v>206.5643005515927</v>
@@ -33605,7 +33605,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
@@ -33739,7 +33739,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>173.8200325543357</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
@@ -33751,7 +33751,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33891,7 +33891,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33976,7 +33976,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>173.8200325543357</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
@@ -33988,7 +33988,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34365,7 +34365,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34444,13 +34444,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>173.8200325543357</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
@@ -34462,7 +34462,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,10 +34856,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L4" t="n">
         <v>319.7573721701981</v>
@@ -34871,13 +34871,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P4" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N8" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q9" t="n">
         <v>159.2338966127272</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K10" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O10" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,31 +35485,31 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L12" t="n">
-        <v>108.4053175402704</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>159.2338966127261</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,31 +35722,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O15" t="n">
-        <v>256.1654199113569</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>159.2338966127261</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35968,16 +35968,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O18" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36205,16 +36205,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O21" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -37065,31 +37065,31 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J32" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L32" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N32" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P32" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R32" t="n">
         <v>129.8660843902404</v>
@@ -37144,25 +37144,25 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113569</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37226,7 +37226,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K34" t="n">
         <v>264.3325884096349</v>
@@ -37235,19 +37235,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P34" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q34" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37387,7 +37387,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>35.97859357997668</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
@@ -37399,7 +37399,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37539,7 +37539,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37624,7 +37624,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>35.97859357997668</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
@@ -37636,7 +37636,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -38013,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38092,13 +38092,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>35.97859357997668</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
@@ -38110,7 +38110,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
